--- a/500all/speech_level/speeches_CHRG-114hhrg99650.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99650.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400411</t>
   </si>
   <si>
-    <t>Michael R. Turner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Turner. We will come to order.    General Williamson, General Murray, General Walsh, General Shrader, Mr. William Taylor, we have agreed that we are all going to put our statements into the record so we can go directly to you. I understand that we are going to be having--are the votes called or they have been?    Not yet. So it is our hope that we can get through all of the opening statements and perhaps a few questions before we have to adjourn for votes.    I believe we are turning to General Williamson first.    [The prepared statements of Mr. Turner and Ms. Tsongas can be found in the Appendix beginning on page 31.]    General Williamson. Chairman Turner, Ranking Member Tsongas, and distinguished members of the Subcommittee on Tactical Air and Land Forces, thank you for the invitation to discuss the Army's fiscal year 2017 ground force modernization programs, and for this opportunity to appear with our Navy and Marine Corps counterparts.    We are proud to work with them in a number of critical areas, including the Joint Light Tactical Vehicle [JLTV] program. With me today is Lieutenant General Mike Murray, the Army Deputy Chief of Staff, G-8. Mr. Chairman, I thank you for making our written statement a part of the record for today's hearing.    Mr. Chairman, the Army's number one priority is readiness. This means that we can no longer equip and sustain the entire force with the most modern equipment. This is a fact based on our current fiscal situation. Still the Army will focus its investments on supporting elements of readiness, which include key modernization programs. Equipping is and will always remain a critical component of readiness.    Our equipment modernization strategy is focused on five capability areas. First, aviation, which I know we will not discuss today, but remains a priority for the Army. Second, a robust network. That network has to be protected against cyberattacks.    Key investments in this area include the Warfighter Information Network-Tactical [WIN-T] that provides us with networking on the move; assured position, navigation, and timing for trusted information while operating in conditions that may impede or deny access to the Global Positioning System; communication security; and offensive and defensive cyber operations to protect our networks in cyberspace.    Third, integrated air and missile defense to defeat a large portfolio of threats that range from small UAVs [unmanned aerial vehicles], cruise missiles, ballistic missiles, mortars, and even threat aircraft. Key investments in this area include air and missile defense battle command systems, an indirect fire protection capability, and modernization of the Patriot system.    Fourth, our combat vehicle modernization provides future Army maneuver forces with increased mobility, survivability, and lethality. Specifically, the Army is investing in a ground mobility vehicle, mobile protective firepower, Stryker lethality upgrades, and the armored multi-purpose vehicle.    We are also incrementally modifying and modernizing existing systems to increase capabilities and to extend service life with improvements to the Abrams, the Bradley, and the Paladin systems.    Finally, the Army will continue to address emerging threats by investing in mature technologies with the greatest potential for future use. These areas include the Modular Active Protection System, electronic warfare, and combat vehicle prototyping.    We continue to protect our science and technology [S&amp;T] funding so that the next generation of breakthrough technologies can be rapidly applied to our existing or our new equipment designs.    While other services man equipment, the Army equips soldiers. Even with our modernization budget being at historic lows, our equipping mission remains essential. We cannot put our soldiers at risk by not providing them with the right equipment at the right time and the right place to accomplish their assigned missions.    Mr. Chairman and distinguished members of this subcommittee, we greatly appreciate and thank you for your steadfast and strong support to the outstanding men and women of the United States Army, our Army civilians, and our Army families.    This concludes my opening remarks, Mr. Chairman. We look forward to your questions.    [The joint prepared statement of General Williamson and General Murray can be found in the Appendix on page 34.]</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>412254</t>
   </si>
   <si>
-    <t>Niki Tsongas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Tsongas. Thank you, Mr. Chairman, and thank you all for being here. As I have served on the Armed Services Committee it has been my experience that absent oversight from Congress the services neglect to design and field equipment with specific requirements for women.    We have seen some progress in the area of body armor, important progress. We know that in the area of shoes that are issued to our service men and women there hasn't been a lot of thought about, you know, what a woman's foot might need in these challenging--given the demands on what she needs to to.    And so I think with the Department of Defense having recently opened all combat-related positions to women in the military that meet the required standards, a move that I certainly support, I would really like to ask that in the area of the newly opened positions which include infantry positions previously closed to women, how are the Army and Marines adapting their infantry equipment requirements to account for these changes in policy?    For example, will the next generation of soldier or marine protective equipment, like body armor, be provided in a range of sizes, shapes, and configurations to account for more women in infantry units?    General Williamson. So ma'am, let me start from an Army perspective. So this is one of the things we have made considerable progress in in terms of our uniforms and also in our protective equipment. So I would start by telling you that we have added eight additional sizes based on a better understanding of the stature. And so there is a level of complexity here that it is not just being smaller. It is proportions. And so that is why there are so many additional sizes.    And as anybody who has worn a piece of body armor knows that it is inconvenient enough without being able to appropriately size it. And so in the design of our new protective equipment we have worked very hard as you look at both the torso, the hard armor protection, the extremities with the soft armor and the sizing so that we can fit both women and smaller male soldiers appropriately.</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>400244</t>
   </si>
   <si>
-    <t>Frank A. LoBiondo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. LoBiondo. Thank you for being here and for all that you do. General Murray, in the battle space whether air, land, or sea, it is always the tangible items that are given the most interest from the Department of Defense, Congress, and the general public because they are the things that we can reach out and touch and physically see.    However sometimes it is the invisible items, mainly C4ISR [command, control, communications, computers, intelligence, surveillance, and reconnaissance] capabilities and resiliency that determine success in the modern battle space. So along those lines can you update the committee on the tactical radio programs, specifically HMS [Handheld, Manpack, and Small-Form Fit], and what the Army is doing to move this program along as expeditiously as possible?    General Murray. Sir, I will kind of cover it very broadly and then General Williamson has got much more depth into it, and I will pass it over to General Williamson.    And so I mean there is within our network, which General Williamson has said was, you know, the number two priority in terms of the 2017 budget. And the overall umbrella would be our WIN-T program. There are several layers we are talking about.    The HMS manpack radio is absolutely a key component within what we are trying to do in terms of pushing command or on-the-move capability down to multiple echelons as well as connecting lower and upper mid-tier echelons of command.    So connecting companies up to battalion, to brigade and then that on-the-move capability. And basically HMS is a critical capability within that, and then General Williamson will pick it up from there.    General Williamson. So sir, really appreciate the question. The radio program is something that I have been invested in for a number of years. So I am happy to report that the HMS handheld radio, so we just had a contract award on the 26th of February. And the reason I am pleased with that is that there were multiple vendors who are now qualified, which means that we will have competition that will allow us to get the best price for the taxpayer and give the best capability to soldiers.    And so when we talk about the HMS program it really represents two pieces. One, a manpack radio that is two channels that allows us to have satellite communications as well as direct line of sight. That program we have fielded roughly about 5,000 of those radios and we are going in now for a lighter version.    This gets to Ms. Tsongas' question is how do we lighten the load? So one of the things that we are doing with that radio is how do we make that smaller and increase range?    The radio contract that we just awarded last week will be for a smaller handheld radio that is used at the squad level. And we believe that will go through a series of tests with the three vendors and we will down-select. I can't tell you today whether that is one or two. My goal is always to maintain competition. So I think both programs are moving forward very steadily, sir.</t>
   </si>
   <si>
@@ -118,9 +109,6 @@
     <t>412513</t>
   </si>
   <si>
-    <t>Paul Cook</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cook. Sleeping on the switch here. I had a couple of questions on standardization of ammo. When I am thinking about the Stryker and I am thinking about the Bradley and I am thinking about the LAV [Light Armored Vehicle] and, you know, I am not as smart as anybody in this room here. I am just a dumb grunt. But why do we have, you know, 25 mm for one and 30 [mm] for the other?    I am a big fan of the Stryker. I like going up to the 30 mm. But I have also heard some rumors that some of the troops--I have got Fort Irwin--that they are grumbling a little bit about the 25 mm, and even in the Marine Corps. Whether it is capable to standardize that equipment or whether we have to retool all those vehicles?    If you could kind of comment on that because I am going to ask the same question about why the Marine Corps has its own 5.56 and the Army has its own 5.56.    And when we go into these budget wars where we are supposed to have our act together in terms of efficiency and effectiveness and we are trying to make the argument, and you have got a lot of people here that are, you know, quite frankly, hawks. And we are going to be fighting other people that are going to want to cut your budgets. These are answers that I think are imperative to some of the discussions that we have.    So is that too much of a grenade?    General Murray. No, sir. So I mean, you are absolutely correct. So the 30 mm is the current weapons system. It is not done yet as you know. We are still upgrading the Strykers, 81 per BCT [brigade combat team] starting with the regiment in Germany. And the 25, I know of, and General Williamson can talk in more detail, I know of no plans to try to go back in and reengineer the Bradley for a 30 mm.    A lot of that may be the integration piece of it is just too difficult and as spending a lot of time in a Bradley myself, I personally think the 25 with the right ammo is a very effective weapon system.    The 30 and Bradleys normally are around tanks so I mean that was part of the discussion in terms of 30 mm versus a smaller gun for the Strykers. Strykers are not necessarily throw--so there is a lot that went into it, but--and I will turn it over to General Williamson--but 30 on the Stryker, 25 on the Bradley is where we intend to stay.    General Williamson. So sir, just two points. So I do appreciate the concern about multiple weapons systems and then the associated tail that comes with multiple variations of ammunition. But the start point is the investment that would be required to go back and touch all of the 25 mms, which is a very capable weapon system. That is a significant investment.    I have spent time with our ammunition and our ballistics folks, and I would tell you that the 30 mm that gets added to the Stryker gives it an incredible capability. I mean, and part of the motivation there is it is on two fronts. So one, it gives you a capability to be able to address lightly armored, lightly skinned vehicles, but that weapon also gives you a tremendous capability in engaging enemy in the open and at range.    And so we believe it adds a tremendous amount of capability to that Stryker force, especially as you look at our desire to provide additional capabilities starting in Europe. And that is the direction that we have headed. There will be a separate decision that will be made by the leadership of the Army that talks about how far you go with that Stryker lethality package and the 30 mm.    General Walsh. Congressman, I think the first thing I would say is whenever we can, our intent is to buy with the Army in the same program. So everything going forward that is what we try to look at, and I will look forward to trying to answer that 5.56 question later when you bring that forward.    On the LAV specifically, as we look at our priorities between we have got first priority really is affordability on the ACV and the JLTV, trying to get those programs forward. Trying to give more firepower to our LAV program along with keeping them around longer, we focused really on their obsolescence and keeping them going from an obsolescence standpoint, but also the LAV anti-tank program. That is really our focus right now has been to up-gun them with this new anti-tank capability.    I think the same thing that General Murray had said it to try to up-gun and take an older vehicle like this at this point in time we are trying to bring in new programs and try to bring in a higher caliber capability in. It is just not an affordability standpoint to where we can afford to go right now.</t>
   </si>
   <si>
@@ -133,9 +121,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Takai</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Takai. Thank you, Mr. Chairman. Aloha, generals. I am concerned about the cycle we go through in upgrading and modernizing the technologies that our warfighters employ in combat on the ground. As you know, we have found ourselves in situations in the past where we had deployed troops without the proper equipment because of our modernization cycles that have been underfunded.    Today I want to ask about a couple of programs, mainly on the ground system acquisition and communication. First General Williamson, it appears the Army has issued an unfinanced requirement list which seeks 16 additional M88A2 improved recovery vehicles. Will these be the older A1 vehicles that are improved to create the A2 versions? And how many M88A1 Hercules, the older variant, will remain in the Army's inventory after completion of the current program funding?    General Williamson. So sir, I will have to come back and tell you what the total number is, but the answer to your first question is that it is an upgrade to the existing 88s.    [The information referred to can be found in the Appendix on page 67.]</t>
   </si>
   <si>
@@ -154,9 +139,6 @@
     <t>412643</t>
   </si>
   <si>
-    <t>Thomas MacArthur</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. MacArthur. Thank you, Mr. Chairman. I wanted to talk about unfunded priorities for a few moments. And just clarify before I get specific, did you base your unfunded requirements list on PB [President's budget] 2017 or on the full $574 billion?    General Murray. Sir, we based it on the budget that we submitted. So part of that was the difference between what we built the POM [program objective memorandum] against and what we got in terms of the BBA, so part of that was to backfill the BBA cut, if that makes sense to you? That was a big piece of it.</t>
   </si>
   <si>
@@ -190,9 +172,6 @@
     <t>412620</t>
   </si>
   <si>
-    <t>Gwen Graham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Graham. Thank you very much, Mr. Chairman. Congressman MacArthur just took my question, but that is okay. It was a great answer, appreciate the information. So I will ask a different question. Thank you, gentlemen, first of all, for being here very much.    As a new member of this committee, we spend a lot of time focused on the challenges we face in the Middle East, which has a unique topography. And I am sure you are training for that type of a potential conflict environment.    What would happen if something sprung up in a different part of the world? Would there be an opportunity--would the training that is going on now be in any way an additional challenge to, say, a jungle environment or something that wasn't like the Middle East? And what would we need to do to pivot to a different battlefield? Thank you.    General Murray. Yes, ma'am. Thank you for that. And so it is not really a budget question or a modernization question, but just based upon 33 years of doing this, it is really, you know, where you are and what the geography looks like, the conditions that you fight in is really what we would call conditions.    So we train to a common standard for specific tasks, and those are really applicable no matter where you employ those, both individually and collectively. Would the jungle versus the desert versus the Arctic have an impact? Yes. We would have to account for that. But, you know, how we perform a certain task doesn't necessarily change and the standards we perform that task to doesn't change. It is the conditions that really change, if that answers your question.    General Williamson. I just wanted to add a modernization piece to that, and it really gets to some of the questions that we have had in the past regarding the time it takes and the investment it takes in modernization.    And so what we don't have the luxury of is building systems that are very specific to a particular environment. And that is why we design systems that have multiple uses and can operate in cold weather regions as well as in the jungle.    And to do that and to make sure that you have the reliability that that weapon system needs to give you in a cold weather, as well as a hot weather region, requires us to make an investment on the engineering side and on the testing side to ensure that we don't put a solider in harm's way because we have placed them in an environment where the effects of the geography, of the weather, all of those factors can put them at risk.    General Walsh. Yes, Congressman, I think, you know, we have been focused very much on the Middle East for good reason for a long time, but we are changing that. There is obviously from the administration with the rebalance to the Pacific, we have taken a lot of our forces out of the Pacific region, which we did a lot of jungle training when we were in there. And we have got four full battalions back there. We have really kind of regenerated that force.    Today as we speak we have got 1,900 marines up north of the Arctic Circle, up in an exercise called Cold Response with our NATO [North Atlantic Treaty Organization] allies and working with the Norwegians. We are looking at our cold weather gear and we are relearning our cold weather capabilities that we have not had since really the Cold War and really used significantly. General Shrader is looking very closely at what gear we still need to reconstitute to be able to be where we are capable in those areas.    Right now the Commandant has got me responsible for a program called Marine Corps Force 2025. And we are looking at this future operating environment which is looked at not just what we have been looking at with counterinsurgency, counterterrorism operations in the Middle East, but how will we fight in the future against this hybrid threat, against a high-end near-peer competitor that we see both from the capabilities that Russia and China proliferate and how we will operate in that environment?    So right now, we are going through a detailed look at our force unit by unit and see how are we structured from a capability standpoint. Do we have the right formations and do we have the right capabilities to go with that? But it is certainly this operating environment today is forcing us to look at things completely different than we have in the last 15 years.    General Shrader. Yes, ma'am. I would just say just exactly what Lieutenant General Williamson said. You know, when it comes to a system, designing it and testing it for the full spectrum across all the environments. That is really what takes a lot of time. You know, we will have a system specifically designed to do one thing, but then when we put it through the environmental-type testing is what really will sometimes make us go back and have to redesign it. So yes, ma'am.</t>
   </si>
   <si>
@@ -205,9 +184,6 @@
     <t>412453</t>
   </si>
   <si>
-    <t>Christopher P. Gibson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gibson. Well, thanks, Mr. Chairman, and gentlemen, thank you for your service, your leadership, the sacrifices of your families. And the question I have is going to be for both the Army and the Marine Corps. And as a premise for that, myself, the chairman, Sergeant Major, Congressman Walz and others here on the committee, we have introduced a bill to stop the drawdown for the land forces.    We know that this is a very serious bill because it has consequences. It has impacts all the way across the budget. But it is our judgment that, you know, given the assumptions that were in place when decisions were made on the sizing of the land forces, we think there has been significant change and much more risk today such that the risk to deterrence, the risk to fighting and winning the war, and the risk to families in terms of the dwell time and impacts are such that we feel the need to come forward with the bill.    My question to the witnesses today has to do with impacts on modernization. So the staff we are in the process of collecting information as to what the price tag would be for that because the leaders of both the Army and the Marine Corps have been very clear that while concurring with risk assessments it is paramount that we not hollow out the force so that we have the resources necessary to not only man the force but to equip it, to modernize it and to still make the investments across the full spectrum, family readiness, and also R&amp;D.    So I throw it over to the panel in terms of what that means in as much specificity as you can give today, but then of course for the record if you want to follow that up because we are going through this in great detail here in the committee.    General Murray. So Congressman Gibson, thank you for that question, and you took away my line. So both General Milley and General Allen have talked about this specific issue and I think what both of them said, and you have alluded to it all along, that is an increase in end strength without an increase in topline would just make the problems we have right now even worse in terms of how do you balance structure versus readiness versus modernization?    And I really think it talks about, you know, if this were to come to pass as to what type of formations would be built with that increase in terms of a modernization bill. So until we get a little bit further down the road and if it happens, you know, what specifically are we talking about? I could come back to you with a lot greater detail in terms of what it would take to equip and modernize those additional formations if that gets a little bit at your question.    General Walsh. Congressman Gibson, thank you also for that question. I think looking back, you know, when the Marine Corps was downsizing from 202,000 and we were on that slope down trying to figure out what was a good number for us, I think we came up with a number of about 186 at that time. And we ended up with 182, which we are probably at about 183 right now on that slope down to 182.    As we looked at that is what are the trades as you start to come down? And just as General Murray said, you start, you know, balancing readiness, force structure, modernization. So I think as we look at that, deployment-to-dwell is one of those things. What are we being challenged to do with right now? And our OPTEMPO [operation tempo] certainly has not changed a lot. I mean, we are a very busy force, a very busy Marine Corps.    So from a structure standpoint you can only push the troops so hard, so any increase in strength I think it certainly, like you talked about, is going to have to have some cost to it, some increase in resources. So it can't just be an end strength add. We have got to be able to have the resource.    So to going back to that Marine Corps Force 2025 that we are in the middle of doing right now is the assumption right now that we are going at is we maintain the 182,000 number structure. And how do we gain in added capabilities that we need within that structure? So the trades we are looking at in there as we drill down right now, things such as, you know, information warfare, as quickly as that is moving the technology in that area with cyber electronic warfare, information operations, more command and control capabilities.    All those come at a cost and a lot of those marines that come in that area that are signals intelligence, electronic warfare capability, and our communications and computer capabilities, those are more senior marines. So we are trying the process of trying to grow a more senior force in a lot of ways and try to retain more seniors. That also comes with a cost.    So I think it, just like General Murray said, we would have to get back to you. We are right in the middle of this, really, this drilldown in it and what we need in the future force. The goal where we are at right now is if we had to maintain at 182, knowing what adds we would have to get, what capabilities we would have, knowing that we are going to have to take risk and try to determine where the risk would come in that area.    So as we go through this and we start moving towards a Quadrennial Defense Review position, we are going to already have kind of in our mind what are things we need to have to be a more modern force? We are then going to have to determine is do we have to take risk from other areas to be that more modern force? Or would there be a topline add increase in force structure, like you suggest, and what would be the bill that would go with it?</t>
   </si>
   <si>
@@ -229,9 +205,6 @@
     <t>412533</t>
   </si>
   <si>
-    <t>Tammy Duckworth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Duckworth. Thank you, Mr. Chairman. General Williamson, I would like to talk a little bit about the tactical wheeled vehicle fleet and the Army's plans on divesting 26,000 HMMWVs in fiscal year 2016, but then also in terms of the shortage that I see we are having with shortage of heavy equipment prime movers. That was something that was brought up in the National Commission on the Future of the Army's report.    I am just going to read from it. It says, ``There seems to be some commanders indicated to the Commission that tactical wheeled vehicle shortages in their units are creating significant risks. And these shortages are most pronounced in heavy equipment prime movers.'' Giving an anecdotal story even that we have had to rely on our European allies to transport our tanks in support of the European Reassurance Initiative.    So we are facing readiness issues in tactical wheeled mobility. What is the rationale for such a large HMMWV divestiture? And where in the fleet are you accepting the most risk? Is it HMMWVs, medium lift, heavy lift?    General Williamson. So, ma'am, I am going to ask General Murray to talk the bigger modernization strategy, and then I would like to come back to talk to you about a specific set of tactical vehicles.</t>
   </si>
   <si>
@@ -251,9 +224,6 @@
   </si>
   <si>
     <t>412611</t>
-  </si>
-  <si>
-    <t>Martha McSally</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman. Thank you, gentlemen. I do want to follow up just to clarify on the question about the female PPE [personal protective equipment], just in case any Neanderthals try and seize what you said to use it for unintended purposes, the lightening of the load that you all talked about has nothing to do with women being in your units, right? These are efforts that have been ongoing because it is in our best interests to have the lightest load possible for our soldiers and marines?    General Williamson. Absolutely, ma'am. And so we approach the soldier protection system from the level that we always want to find ways to improve its capability, but also lighten the load, whether you are talking about the protective vest or whether you are talking about the helmet. It has nothing to do with whether you are a male or a female. We can't burden our soldiers with more weight.</t>
@@ -721,11 +691,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -747,11 +715,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -773,11 +739,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -799,11 +763,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -825,11 +787,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -851,11 +811,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -877,11 +835,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -901,13 +857,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -927,13 +881,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>21</v>
-      </c>
-      <c r="H10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -953,13 +905,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -979,13 +929,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1005,13 +953,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1033,11 +979,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1057,13 +1001,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1083,13 +1025,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
         <v>28</v>
-      </c>
-      <c r="G16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1111,11 +1051,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1135,13 +1073,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1161,13 +1097,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1189,11 +1123,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1213,13 +1145,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" t="s">
-        <v>39</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1239,13 +1169,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" t="s">
-        <v>39</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1265,13 +1193,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" t="s">
-        <v>39</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1291,13 +1217,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
         <v>38</v>
-      </c>
-      <c r="G24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1319,11 +1243,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1343,13 +1265,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1369,13 +1289,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1395,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1421,13 +1337,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1447,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
         <v>45</v>
-      </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1473,13 +1385,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
         <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1499,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1525,13 +1433,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1551,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1579,11 +1483,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1603,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36" t="s">
-        <v>58</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1629,13 +1529,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
-      </c>
-      <c r="G37" t="s">
-        <v>58</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1657,11 +1555,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1681,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" t="s">
-        <v>63</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1707,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" t="s">
-        <v>63</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1733,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
-      </c>
-      <c r="G41" t="s">
-        <v>63</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1759,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
-      </c>
-      <c r="G42" t="s">
-        <v>63</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1785,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
-      </c>
-      <c r="G43" t="s">
-        <v>63</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1813,11 +1699,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1837,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>70</v>
-      </c>
-      <c r="G45" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1863,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>70</v>
-      </c>
-      <c r="G46" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1889,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>70</v>
-      </c>
-      <c r="G47" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1915,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>70</v>
-      </c>
-      <c r="G48" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1941,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>70</v>
-      </c>
-      <c r="G49" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1969,11 +1843,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1993,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>78</v>
-      </c>
-      <c r="G51" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2019,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>78</v>
-      </c>
-      <c r="G52" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2045,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>78</v>
-      </c>
-      <c r="G53" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2071,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>78</v>
-      </c>
-      <c r="G54" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2097,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>78</v>
-      </c>
-      <c r="G55" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2123,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>78</v>
-      </c>
-      <c r="G56" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2149,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>78</v>
-      </c>
-      <c r="G57" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2175,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
-      </c>
-      <c r="G58" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2201,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
+        <v>69</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
         <v>78</v>
-      </c>
-      <c r="G59" t="s">
-        <v>79</v>
-      </c>
-      <c r="H59" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2227,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60" t="s">
+        <v>69</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
         <v>79</v>
-      </c>
-      <c r="H60" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2253,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>78</v>
-      </c>
-      <c r="G61" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2279,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>78</v>
-      </c>
-      <c r="G62" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2305,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
-      </c>
-      <c r="G63" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2331,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>78</v>
-      </c>
-      <c r="G64" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2357,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>78</v>
-      </c>
-      <c r="G65" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2383,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>78</v>
-      </c>
-      <c r="G66" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2411,11 +2251,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2437,11 +2275,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2463,11 +2299,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2487,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" t="s">
-        <v>21</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2513,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s">
-        <v>21</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2539,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s">
-        <v>21</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2567,11 +2395,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99650.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99650.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400411</t>
   </si>
   <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Turner. We will come to order.    General Williamson, General Murray, General Walsh, General Shrader, Mr. William Taylor, we have agreed that we are all going to put our statements into the record so we can go directly to you. I understand that we are going to be having--are the votes called or they have been?    Not yet. So it is our hope that we can get through all of the opening statements and perhaps a few questions before we have to adjourn for votes.    I believe we are turning to General Williamson first.    [The prepared statements of Mr. Turner and Ms. Tsongas can be found in the Appendix beginning on page 31.]    General Williamson. Chairman Turner, Ranking Member Tsongas, and distinguished members of the Subcommittee on Tactical Air and Land Forces, thank you for the invitation to discuss the Army's fiscal year 2017 ground force modernization programs, and for this opportunity to appear with our Navy and Marine Corps counterparts.    We are proud to work with them in a number of critical areas, including the Joint Light Tactical Vehicle [JLTV] program. With me today is Lieutenant General Mike Murray, the Army Deputy Chief of Staff, G-8. Mr. Chairman, I thank you for making our written statement a part of the record for today's hearing.    Mr. Chairman, the Army's number one priority is readiness. This means that we can no longer equip and sustain the entire force with the most modern equipment. This is a fact based on our current fiscal situation. Still the Army will focus its investments on supporting elements of readiness, which include key modernization programs. Equipping is and will always remain a critical component of readiness.    Our equipment modernization strategy is focused on five capability areas. First, aviation, which I know we will not discuss today, but remains a priority for the Army. Second, a robust network. That network has to be protected against cyberattacks.    Key investments in this area include the Warfighter Information Network-Tactical [WIN-T] that provides us with networking on the move; assured position, navigation, and timing for trusted information while operating in conditions that may impede or deny access to the Global Positioning System; communication security; and offensive and defensive cyber operations to protect our networks in cyberspace.    Third, integrated air and missile defense to defeat a large portfolio of threats that range from small UAVs [unmanned aerial vehicles], cruise missiles, ballistic missiles, mortars, and even threat aircraft. Key investments in this area include air and missile defense battle command systems, an indirect fire protection capability, and modernization of the Patriot system.    Fourth, our combat vehicle modernization provides future Army maneuver forces with increased mobility, survivability, and lethality. Specifically, the Army is investing in a ground mobility vehicle, mobile protective firepower, Stryker lethality upgrades, and the armored multi-purpose vehicle.    We are also incrementally modifying and modernizing existing systems to increase capabilities and to extend service life with improvements to the Abrams, the Bradley, and the Paladin systems.    Finally, the Army will continue to address emerging threats by investing in mature technologies with the greatest potential for future use. These areas include the Modular Active Protection System, electronic warfare, and combat vehicle prototyping.    We continue to protect our science and technology [S&amp;T] funding so that the next generation of breakthrough technologies can be rapidly applied to our existing or our new equipment designs.    While other services man equipment, the Army equips soldiers. Even with our modernization budget being at historic lows, our equipping mission remains essential. We cannot put our soldiers at risk by not providing them with the right equipment at the right time and the right place to accomplish their assigned missions.    Mr. Chairman and distinguished members of this subcommittee, we greatly appreciate and thank you for your steadfast and strong support to the outstanding men and women of the United States Army, our Army civilians, and our Army families.    This concludes my opening remarks, Mr. Chairman. We look forward to your questions.    [The joint prepared statement of General Williamson and General Murray can be found in the Appendix on page 34.]</t>
   </si>
   <si>
@@ -76,6 +85,12 @@
     <t>412254</t>
   </si>
   <si>
+    <t>Tsongas</t>
+  </si>
+  <si>
+    <t>Niki</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Tsongas. Thank you, Mr. Chairman, and thank you all for being here. As I have served on the Armed Services Committee it has been my experience that absent oversight from Congress the services neglect to design and field equipment with specific requirements for women.    We have seen some progress in the area of body armor, important progress. We know that in the area of shoes that are issued to our service men and women there hasn't been a lot of thought about, you know, what a woman's foot might need in these challenging--given the demands on what she needs to to.    And so I think with the Department of Defense having recently opened all combat-related positions to women in the military that meet the required standards, a move that I certainly support, I would really like to ask that in the area of the newly opened positions which include infantry positions previously closed to women, how are the Army and Marines adapting their infantry equipment requirements to account for these changes in policy?    For example, will the next generation of soldier or marine protective equipment, like body armor, be provided in a range of sizes, shapes, and configurations to account for more women in infantry units?    General Williamson. So ma'am, let me start from an Army perspective. So this is one of the things we have made considerable progress in in terms of our uniforms and also in our protective equipment. So I would start by telling you that we have added eight additional sizes based on a better understanding of the stature. And so there is a level of complexity here that it is not just being smaller. It is proportions. And so that is why there are so many additional sizes.    And as anybody who has worn a piece of body armor knows that it is inconvenient enough without being able to appropriately size it. And so in the design of our new protective equipment we have worked very hard as you look at both the torso, the hard armor protection, the extremities with the soft armor and the sizing so that we can fit both women and smaller male soldiers appropriately.</t>
   </si>
   <si>
@@ -97,6 +112,12 @@
     <t>400244</t>
   </si>
   <si>
+    <t>LoBiondo</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. LoBiondo. Thank you for being here and for all that you do. General Murray, in the battle space whether air, land, or sea, it is always the tangible items that are given the most interest from the Department of Defense, Congress, and the general public because they are the things that we can reach out and touch and physically see.    However sometimes it is the invisible items, mainly C4ISR [command, control, communications, computers, intelligence, surveillance, and reconnaissance] capabilities and resiliency that determine success in the modern battle space. So along those lines can you update the committee on the tactical radio programs, specifically HMS [Handheld, Manpack, and Small-Form Fit], and what the Army is doing to move this program along as expeditiously as possible?    General Murray. Sir, I will kind of cover it very broadly and then General Williamson has got much more depth into it, and I will pass it over to General Williamson.    And so I mean there is within our network, which General Williamson has said was, you know, the number two priority in terms of the 2017 budget. And the overall umbrella would be our WIN-T program. There are several layers we are talking about.    The HMS manpack radio is absolutely a key component within what we are trying to do in terms of pushing command or on-the-move capability down to multiple echelons as well as connecting lower and upper mid-tier echelons of command.    So connecting companies up to battalion, to brigade and then that on-the-move capability. And basically HMS is a critical capability within that, and then General Williamson will pick it up from there.    General Williamson. So sir, really appreciate the question. The radio program is something that I have been invested in for a number of years. So I am happy to report that the HMS handheld radio, so we just had a contract award on the 26th of February. And the reason I am pleased with that is that there were multiple vendors who are now qualified, which means that we will have competition that will allow us to get the best price for the taxpayer and give the best capability to soldiers.    And so when we talk about the HMS program it really represents two pieces. One, a manpack radio that is two channels that allows us to have satellite communications as well as direct line of sight. That program we have fielded roughly about 5,000 of those radios and we are going in now for a lighter version.    This gets to Ms. Tsongas' question is how do we lighten the load? So one of the things that we are doing with that radio is how do we make that smaller and increase range?    The radio contract that we just awarded last week will be for a smaller handheld radio that is used at the squad level. And we believe that will go through a series of tests with the three vendors and we will down-select. I can't tell you today whether that is one or two. My goal is always to maintain competition. So I think both programs are moving forward very steadily, sir.</t>
   </si>
   <si>
@@ -109,6 +130,12 @@
     <t>412513</t>
   </si>
   <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cook. Sleeping on the switch here. I had a couple of questions on standardization of ammo. When I am thinking about the Stryker and I am thinking about the Bradley and I am thinking about the LAV [Light Armored Vehicle] and, you know, I am not as smart as anybody in this room here. I am just a dumb grunt. But why do we have, you know, 25 mm for one and 30 [mm] for the other?    I am a big fan of the Stryker. I like going up to the 30 mm. But I have also heard some rumors that some of the troops--I have got Fort Irwin--that they are grumbling a little bit about the 25 mm, and even in the Marine Corps. Whether it is capable to standardize that equipment or whether we have to retool all those vehicles?    If you could kind of comment on that because I am going to ask the same question about why the Marine Corps has its own 5.56 and the Army has its own 5.56.    And when we go into these budget wars where we are supposed to have our act together in terms of efficiency and effectiveness and we are trying to make the argument, and you have got a lot of people here that are, you know, quite frankly, hawks. And we are going to be fighting other people that are going to want to cut your budgets. These are answers that I think are imperative to some of the discussions that we have.    So is that too much of a grenade?    General Murray. No, sir. So I mean, you are absolutely correct. So the 30 mm is the current weapons system. It is not done yet as you know. We are still upgrading the Strykers, 81 per BCT [brigade combat team] starting with the regiment in Germany. And the 25, I know of, and General Williamson can talk in more detail, I know of no plans to try to go back in and reengineer the Bradley for a 30 mm.    A lot of that may be the integration piece of it is just too difficult and as spending a lot of time in a Bradley myself, I personally think the 25 with the right ammo is a very effective weapon system.    The 30 and Bradleys normally are around tanks so I mean that was part of the discussion in terms of 30 mm versus a smaller gun for the Strykers. Strykers are not necessarily throw--so there is a lot that went into it, but--and I will turn it over to General Williamson--but 30 on the Stryker, 25 on the Bradley is where we intend to stay.    General Williamson. So sir, just two points. So I do appreciate the concern about multiple weapons systems and then the associated tail that comes with multiple variations of ammunition. But the start point is the investment that would be required to go back and touch all of the 25 mms, which is a very capable weapon system. That is a significant investment.    I have spent time with our ammunition and our ballistics folks, and I would tell you that the 30 mm that gets added to the Stryker gives it an incredible capability. I mean, and part of the motivation there is it is on two fronts. So one, it gives you a capability to be able to address lightly armored, lightly skinned vehicles, but that weapon also gives you a tremendous capability in engaging enemy in the open and at range.    And so we believe it adds a tremendous amount of capability to that Stryker force, especially as you look at our desire to provide additional capabilities starting in Europe. And that is the direction that we have headed. There will be a separate decision that will be made by the leadership of the Army that talks about how far you go with that Stryker lethality package and the 30 mm.    General Walsh. Congressman, I think the first thing I would say is whenever we can, our intent is to buy with the Army in the same program. So everything going forward that is what we try to look at, and I will look forward to trying to answer that 5.56 question later when you bring that forward.    On the LAV specifically, as we look at our priorities between we have got first priority really is affordability on the ACV and the JLTV, trying to get those programs forward. Trying to give more firepower to our LAV program along with keeping them around longer, we focused really on their obsolescence and keeping them going from an obsolescence standpoint, but also the LAV anti-tank program. That is really our focus right now has been to up-gun them with this new anti-tank capability.    I think the same thing that General Murray had said it to try to up-gun and take an older vehicle like this at this point in time we are trying to bring in new programs and try to bring in a higher caliber capability in. It is just not an affordability standpoint to where we can afford to go right now.</t>
   </si>
   <si>
@@ -121,6 +148,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Takai</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Takai. Thank you, Mr. Chairman. Aloha, generals. I am concerned about the cycle we go through in upgrading and modernizing the technologies that our warfighters employ in combat on the ground. As you know, we have found ourselves in situations in the past where we had deployed troops without the proper equipment because of our modernization cycles that have been underfunded.    Today I want to ask about a couple of programs, mainly on the ground system acquisition and communication. First General Williamson, it appears the Army has issued an unfinanced requirement list which seeks 16 additional M88A2 improved recovery vehicles. Will these be the older A1 vehicles that are improved to create the A2 versions? And how many M88A1 Hercules, the older variant, will remain in the Army's inventory after completion of the current program funding?    General Williamson. So sir, I will have to come back and tell you what the total number is, but the answer to your first question is that it is an upgrade to the existing 88s.    [The information referred to can be found in the Appendix on page 67.]</t>
   </si>
   <si>
@@ -139,6 +169,12 @@
     <t>412643</t>
   </si>
   <si>
+    <t>MacArthur</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. MacArthur. Thank you, Mr. Chairman. I wanted to talk about unfunded priorities for a few moments. And just clarify before I get specific, did you base your unfunded requirements list on PB [President's budget] 2017 or on the full $574 billion?    General Murray. Sir, we based it on the budget that we submitted. So part of that was the difference between what we built the POM [program objective memorandum] against and what we got in terms of the BBA, so part of that was to backfill the BBA cut, if that makes sense to you? That was a big piece of it.</t>
   </si>
   <si>
@@ -172,6 +208,12 @@
     <t>412620</t>
   </si>
   <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>Gwen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Graham. Thank you very much, Mr. Chairman. Congressman MacArthur just took my question, but that is okay. It was a great answer, appreciate the information. So I will ask a different question. Thank you, gentlemen, first of all, for being here very much.    As a new member of this committee, we spend a lot of time focused on the challenges we face in the Middle East, which has a unique topography. And I am sure you are training for that type of a potential conflict environment.    What would happen if something sprung up in a different part of the world? Would there be an opportunity--would the training that is going on now be in any way an additional challenge to, say, a jungle environment or something that wasn't like the Middle East? And what would we need to do to pivot to a different battlefield? Thank you.    General Murray. Yes, ma'am. Thank you for that. And so it is not really a budget question or a modernization question, but just based upon 33 years of doing this, it is really, you know, where you are and what the geography looks like, the conditions that you fight in is really what we would call conditions.    So we train to a common standard for specific tasks, and those are really applicable no matter where you employ those, both individually and collectively. Would the jungle versus the desert versus the Arctic have an impact? Yes. We would have to account for that. But, you know, how we perform a certain task doesn't necessarily change and the standards we perform that task to doesn't change. It is the conditions that really change, if that answers your question.    General Williamson. I just wanted to add a modernization piece to that, and it really gets to some of the questions that we have had in the past regarding the time it takes and the investment it takes in modernization.    And so what we don't have the luxury of is building systems that are very specific to a particular environment. And that is why we design systems that have multiple uses and can operate in cold weather regions as well as in the jungle.    And to do that and to make sure that you have the reliability that that weapon system needs to give you in a cold weather, as well as a hot weather region, requires us to make an investment on the engineering side and on the testing side to ensure that we don't put a solider in harm's way because we have placed them in an environment where the effects of the geography, of the weather, all of those factors can put them at risk.    General Walsh. Yes, Congressman, I think, you know, we have been focused very much on the Middle East for good reason for a long time, but we are changing that. There is obviously from the administration with the rebalance to the Pacific, we have taken a lot of our forces out of the Pacific region, which we did a lot of jungle training when we were in there. And we have got four full battalions back there. We have really kind of regenerated that force.    Today as we speak we have got 1,900 marines up north of the Arctic Circle, up in an exercise called Cold Response with our NATO [North Atlantic Treaty Organization] allies and working with the Norwegians. We are looking at our cold weather gear and we are relearning our cold weather capabilities that we have not had since really the Cold War and really used significantly. General Shrader is looking very closely at what gear we still need to reconstitute to be able to be where we are capable in those areas.    Right now the Commandant has got me responsible for a program called Marine Corps Force 2025. And we are looking at this future operating environment which is looked at not just what we have been looking at with counterinsurgency, counterterrorism operations in the Middle East, but how will we fight in the future against this hybrid threat, against a high-end near-peer competitor that we see both from the capabilities that Russia and China proliferate and how we will operate in that environment?    So right now, we are going through a detailed look at our force unit by unit and see how are we structured from a capability standpoint. Do we have the right formations and do we have the right capabilities to go with that? But it is certainly this operating environment today is forcing us to look at things completely different than we have in the last 15 years.    General Shrader. Yes, ma'am. I would just say just exactly what Lieutenant General Williamson said. You know, when it comes to a system, designing it and testing it for the full spectrum across all the environments. That is really what takes a lot of time. You know, we will have a system specifically designed to do one thing, but then when we put it through the environmental-type testing is what really will sometimes make us go back and have to redesign it. So yes, ma'am.</t>
   </si>
   <si>
@@ -184,6 +226,12 @@
     <t>412453</t>
   </si>
   <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gibson. Well, thanks, Mr. Chairman, and gentlemen, thank you for your service, your leadership, the sacrifices of your families. And the question I have is going to be for both the Army and the Marine Corps. And as a premise for that, myself, the chairman, Sergeant Major, Congressman Walz and others here on the committee, we have introduced a bill to stop the drawdown for the land forces.    We know that this is a very serious bill because it has consequences. It has impacts all the way across the budget. But it is our judgment that, you know, given the assumptions that were in place when decisions were made on the sizing of the land forces, we think there has been significant change and much more risk today such that the risk to deterrence, the risk to fighting and winning the war, and the risk to families in terms of the dwell time and impacts are such that we feel the need to come forward with the bill.    My question to the witnesses today has to do with impacts on modernization. So the staff we are in the process of collecting information as to what the price tag would be for that because the leaders of both the Army and the Marine Corps have been very clear that while concurring with risk assessments it is paramount that we not hollow out the force so that we have the resources necessary to not only man the force but to equip it, to modernize it and to still make the investments across the full spectrum, family readiness, and also R&amp;D.    So I throw it over to the panel in terms of what that means in as much specificity as you can give today, but then of course for the record if you want to follow that up because we are going through this in great detail here in the committee.    General Murray. So Congressman Gibson, thank you for that question, and you took away my line. So both General Milley and General Allen have talked about this specific issue and I think what both of them said, and you have alluded to it all along, that is an increase in end strength without an increase in topline would just make the problems we have right now even worse in terms of how do you balance structure versus readiness versus modernization?    And I really think it talks about, you know, if this were to come to pass as to what type of formations would be built with that increase in terms of a modernization bill. So until we get a little bit further down the road and if it happens, you know, what specifically are we talking about? I could come back to you with a lot greater detail in terms of what it would take to equip and modernize those additional formations if that gets a little bit at your question.    General Walsh. Congressman Gibson, thank you also for that question. I think looking back, you know, when the Marine Corps was downsizing from 202,000 and we were on that slope down trying to figure out what was a good number for us, I think we came up with a number of about 186 at that time. And we ended up with 182, which we are probably at about 183 right now on that slope down to 182.    As we looked at that is what are the trades as you start to come down? And just as General Murray said, you start, you know, balancing readiness, force structure, modernization. So I think as we look at that, deployment-to-dwell is one of those things. What are we being challenged to do with right now? And our OPTEMPO [operation tempo] certainly has not changed a lot. I mean, we are a very busy force, a very busy Marine Corps.    So from a structure standpoint you can only push the troops so hard, so any increase in strength I think it certainly, like you talked about, is going to have to have some cost to it, some increase in resources. So it can't just be an end strength add. We have got to be able to have the resource.    So to going back to that Marine Corps Force 2025 that we are in the middle of doing right now is the assumption right now that we are going at is we maintain the 182,000 number structure. And how do we gain in added capabilities that we need within that structure? So the trades we are looking at in there as we drill down right now, things such as, you know, information warfare, as quickly as that is moving the technology in that area with cyber electronic warfare, information operations, more command and control capabilities.    All those come at a cost and a lot of those marines that come in that area that are signals intelligence, electronic warfare capability, and our communications and computer capabilities, those are more senior marines. So we are trying the process of trying to grow a more senior force in a lot of ways and try to retain more seniors. That also comes with a cost.    So I think it, just like General Murray said, we would have to get back to you. We are right in the middle of this, really, this drilldown in it and what we need in the future force. The goal where we are at right now is if we had to maintain at 182, knowing what adds we would have to get, what capabilities we would have, knowing that we are going to have to take risk and try to determine where the risk would come in that area.    So as we go through this and we start moving towards a Quadrennial Defense Review position, we are going to already have kind of in our mind what are things we need to have to be a more modern force? We are then going to have to determine is do we have to take risk from other areas to be that more modern force? Or would there be a topline add increase in force structure, like you suggest, and what would be the bill that would go with it?</t>
   </si>
   <si>
@@ -205,6 +253,12 @@
     <t>412533</t>
   </si>
   <si>
+    <t>Duckworth</t>
+  </si>
+  <si>
+    <t>Tammy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Duckworth. Thank you, Mr. Chairman. General Williamson, I would like to talk a little bit about the tactical wheeled vehicle fleet and the Army's plans on divesting 26,000 HMMWVs in fiscal year 2016, but then also in terms of the shortage that I see we are having with shortage of heavy equipment prime movers. That was something that was brought up in the National Commission on the Future of the Army's report.    I am just going to read from it. It says, ``There seems to be some commanders indicated to the Commission that tactical wheeled vehicle shortages in their units are creating significant risks. And these shortages are most pronounced in heavy equipment prime movers.'' Giving an anecdotal story even that we have had to rely on our European allies to transport our tanks in support of the European Reassurance Initiative.    So we are facing readiness issues in tactical wheeled mobility. What is the rationale for such a large HMMWV divestiture? And where in the fleet are you accepting the most risk? Is it HMMWVs, medium lift, heavy lift?    General Williamson. So, ma'am, I am going to ask General Murray to talk the bigger modernization strategy, and then I would like to come back to talk to you about a specific set of tactical vehicles.</t>
   </si>
   <si>
@@ -224,6 +278,12 @@
   </si>
   <si>
     <t>412611</t>
+  </si>
+  <si>
+    <t>McSally</t>
+  </si>
+  <si>
+    <t>Martha</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman. Thank you, gentlemen. I do want to follow up just to clarify on the question about the female PPE [personal protective equipment], just in case any Neanderthals try and seize what you said to use it for unintended purposes, the lightening of the load that you all talked about has nothing to do with women being in your units, right? These are efforts that have been ongoing because it is in our best interests to have the lightest load possible for our soldiers and marines?    General Williamson. Absolutely, ma'am. And so we approach the soldier protection system from the level that we always want to find ways to improve its capability, but also lighten the load, whether you are talking about the protective vest or whether you are talking about the helmet. It has nothing to do with whether you are a male or a female. We can't burden our soldiers with more weight.</t>
@@ -641,7 +701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,7 +709,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,1733 +731,2088 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
       <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
       <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s"/>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
       <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s"/>
       <c r="H13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G26" t="s">
+        <v>51</v>
+      </c>
       <c r="H26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G27" t="s">
+        <v>51</v>
+      </c>
       <c r="H27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G28" t="s">
+        <v>51</v>
+      </c>
       <c r="H28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G29" t="s">
+        <v>51</v>
+      </c>
       <c r="H29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G30" t="s">
+        <v>51</v>
+      </c>
       <c r="H30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G31" t="s">
+        <v>51</v>
+      </c>
       <c r="H31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G32" t="s">
+        <v>51</v>
+      </c>
       <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G33" t="s">
+        <v>51</v>
+      </c>
       <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G34" t="s">
+        <v>51</v>
+      </c>
       <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>51</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G36" t="s">
+        <v>64</v>
+      </c>
       <c r="H36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G37" t="s">
+        <v>64</v>
+      </c>
       <c r="H37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G39" t="s">
+        <v>70</v>
+      </c>
       <c r="H39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G40" t="s">
+        <v>70</v>
+      </c>
       <c r="H40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G41" t="s">
+        <v>70</v>
+      </c>
       <c r="H41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
       <c r="H42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G43" t="s">
+        <v>70</v>
+      </c>
       <c r="H43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G45" t="s">
+        <v>79</v>
+      </c>
       <c r="H45" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G46" t="s">
+        <v>79</v>
+      </c>
       <c r="H46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G47" t="s">
+        <v>79</v>
+      </c>
       <c r="H47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G48" t="s">
+        <v>79</v>
+      </c>
       <c r="H48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G49" t="s">
+        <v>79</v>
+      </c>
       <c r="H49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>69</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G51" t="s">
+        <v>88</v>
+      </c>
       <c r="H51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>69</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G52" t="s">
+        <v>88</v>
+      </c>
       <c r="H52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G53" t="s">
+        <v>88</v>
+      </c>
       <c r="H53" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>69</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G54" t="s">
+        <v>88</v>
+      </c>
       <c r="H54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>69</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G55" t="s">
+        <v>88</v>
+      </c>
       <c r="H55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>69</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G56" t="s">
+        <v>88</v>
+      </c>
       <c r="H56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>69</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G57" t="s">
+        <v>88</v>
+      </c>
       <c r="H57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>69</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G58" t="s">
+        <v>88</v>
+      </c>
       <c r="H58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>69</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G59" t="s">
+        <v>88</v>
+      </c>
       <c r="H59" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>69</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G60" t="s">
+        <v>88</v>
+      </c>
       <c r="H60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>69</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G61" t="s">
+        <v>88</v>
+      </c>
       <c r="H61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>69</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G62" t="s">
+        <v>88</v>
+      </c>
       <c r="H62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>69</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G63" t="s">
+        <v>88</v>
+      </c>
       <c r="H63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I63" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>69</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G64" t="s">
+        <v>88</v>
+      </c>
       <c r="H64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>69</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G65" t="s">
+        <v>88</v>
+      </c>
       <c r="H65" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>69</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G66" t="s">
+        <v>88</v>
+      </c>
       <c r="H66" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G70" t="s">
+        <v>23</v>
+      </c>
       <c r="H70" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I70" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G71" t="s">
+        <v>23</v>
+      </c>
       <c r="H71" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G72" t="s">
+        <v>23</v>
+      </c>
       <c r="H72" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>92</v>
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99650.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99650.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400411</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Turner</t>
   </si>
   <si>
@@ -85,6 +91,9 @@
     <t>412254</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Tsongas</t>
   </si>
   <si>
@@ -128,6 +137,9 @@
   </si>
   <si>
     <t>412513</t>
+  </si>
+  <si>
+    <t>Vice Chair</t>
   </si>
   <si>
     <t>Cook</t>
@@ -701,7 +713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,7 +721,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,2085 +746,2296 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>24</v>
       </c>
-      <c r="I10" t="s">
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" t="s">
-        <v>24</v>
       </c>
       <c r="I11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>24</v>
       </c>
-      <c r="I12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G28" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G29" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G30" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G32" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G33" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G34" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G36" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="H36" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G37" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G39" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="H39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G40" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="H40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G41" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="H41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G42" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="H42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I42" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G43" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="H43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G45" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="H45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G46" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="H46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G47" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="H47" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G48" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="H48" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I48" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G49" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="H49" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I49" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G51" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H51" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I51" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G52" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H52" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I52" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G53" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H53" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I53" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I54" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G55" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I55" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G56" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H56" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I56" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G57" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H57" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I57" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G58" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H58" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I58" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G59" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H59" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I59" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G60" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H60" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I60" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G61" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H61" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I61" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G62" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H62" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I62" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G63" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H63" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I63" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G64" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I64" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G65" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I65" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G66" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I66" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G70" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H70" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I70" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J70" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G71" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H71" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I71" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G72" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H72" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I72" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>112</v>
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
